--- a/clothes data.xlsx
+++ b/clothes data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李睿哲\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D3EAA4-AD61-4CA5-8DBE-1E2002B27B99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144FA2D-E1AC-4C92-B75E-109FAB966B0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="393">
   <si>
     <t>Dress Code</t>
     <phoneticPr fontId="1"/>
@@ -708,6 +708,583 @@
   <si>
     <t>Tops</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FFF3D9</t>
+  </si>
+  <si>
+    <t>55403D</t>
+  </si>
+  <si>
+    <t>C9C1AE</t>
+  </si>
+  <si>
+    <t>backpack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D5CBC9</t>
+  </si>
+  <si>
+    <t>292A2E</t>
+  </si>
+  <si>
+    <t>47454A</t>
+  </si>
+  <si>
+    <t>ECD5AC</t>
+  </si>
+  <si>
+    <t>4E3517</t>
+  </si>
+  <si>
+    <t>262626</t>
+  </si>
+  <si>
+    <t>E1D9E4</t>
+  </si>
+  <si>
+    <t>F3FCFB</t>
+  </si>
+  <si>
+    <t>FCECDF</t>
+  </si>
+  <si>
+    <t>CAA1A5</t>
+  </si>
+  <si>
+    <t>473D3E</t>
+  </si>
+  <si>
+    <t>473D3E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>826E70</t>
+  </si>
+  <si>
+    <t>262B2F</t>
+  </si>
+  <si>
+    <t>181818</t>
+  </si>
+  <si>
+    <t>6A8CA5</t>
+  </si>
+  <si>
+    <t>846344</t>
+  </si>
+  <si>
+    <t>211813</t>
+  </si>
+  <si>
+    <t>F6FAFB</t>
+  </si>
+  <si>
+    <t>C1B7B8</t>
+  </si>
+  <si>
+    <t>262628</t>
+  </si>
+  <si>
+    <t>FFCBC0</t>
+  </si>
+  <si>
+    <t>FCE9C8</t>
+  </si>
+  <si>
+    <t>463D38</t>
+  </si>
+  <si>
+    <t>D2D8E4</t>
+  </si>
+  <si>
+    <t>495968</t>
+  </si>
+  <si>
+    <t>CBD5DF</t>
+  </si>
+  <si>
+    <t>F1EEDB</t>
+  </si>
+  <si>
+    <t>1D256D</t>
+  </si>
+  <si>
+    <t>311629</t>
+  </si>
+  <si>
+    <t>4570B4</t>
+  </si>
+  <si>
+    <t>F3E8D2</t>
+  </si>
+  <si>
+    <t>B3BDBE</t>
+  </si>
+  <si>
+    <t>E2C293</t>
+  </si>
+  <si>
+    <t>scarf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F0E5E3</t>
+  </si>
+  <si>
+    <t>F6F6F6</t>
+  </si>
+  <si>
+    <t>8E8485</t>
+  </si>
+  <si>
+    <t>544F53</t>
+  </si>
+  <si>
+    <t>161419</t>
+  </si>
+  <si>
+    <t>EDE9E6</t>
+  </si>
+  <si>
+    <t>1B1F20</t>
+  </si>
+  <si>
+    <t>037A67</t>
+  </si>
+  <si>
+    <t>DFDDEB</t>
+  </si>
+  <si>
+    <t>2A292E</t>
+  </si>
+  <si>
+    <t>E8E7ED</t>
+  </si>
+  <si>
+    <t>D1D1D3</t>
+  </si>
+  <si>
+    <t>222127</t>
+  </si>
+  <si>
+    <t>sandals</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EEF1FF</t>
+  </si>
+  <si>
+    <t>BE83A1</t>
+  </si>
+  <si>
+    <t>3B2935</t>
+  </si>
+  <si>
+    <t>C2854C</t>
+  </si>
+  <si>
+    <t>37342F</t>
+  </si>
+  <si>
+    <t>BFC0BA</t>
+  </si>
+  <si>
+    <t>C9CFDF</t>
+  </si>
+  <si>
+    <t>4E4E56</t>
+  </si>
+  <si>
+    <t>CDC3B7</t>
+  </si>
+  <si>
+    <t>F1ECE9</t>
+  </si>
+  <si>
+    <t>0F1312</t>
+  </si>
+  <si>
+    <t>FBFCFF</t>
+  </si>
+  <si>
+    <t>FBFCFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4B3E48</t>
+  </si>
+  <si>
+    <t>090A0C</t>
+  </si>
+  <si>
+    <t>C6BDB6</t>
+  </si>
+  <si>
+    <t>0F0E13</t>
+  </si>
+  <si>
+    <t>2B2620</t>
+  </si>
+  <si>
+    <t>9B9587</t>
+  </si>
+  <si>
+    <t>short pants</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAECE3</t>
+  </si>
+  <si>
+    <t>9F735A</t>
+  </si>
+  <si>
+    <t>AAA19A</t>
+  </si>
+  <si>
+    <t>31212C</t>
+  </si>
+  <si>
+    <t>F2EBE5</t>
+  </si>
+  <si>
+    <t>EAEEF7</t>
+  </si>
+  <si>
+    <t>6F655C</t>
+  </si>
+  <si>
+    <t>746F6C</t>
+  </si>
+  <si>
+    <t>0B0B13</t>
+  </si>
+  <si>
+    <t>F5E9EB</t>
+  </si>
+  <si>
+    <t>1F2442</t>
+  </si>
+  <si>
+    <t>201A24</t>
+  </si>
+  <si>
+    <t>1D1D1D</t>
+  </si>
+  <si>
+    <t>1B2258</t>
+  </si>
+  <si>
+    <t>5B562C</t>
+  </si>
+  <si>
+    <t>1B1A1F</t>
+  </si>
+  <si>
+    <t>EACFBE</t>
+  </si>
+  <si>
+    <t>1E1C1F</t>
+  </si>
+  <si>
+    <t>B69582</t>
+  </si>
+  <si>
+    <t>4B4B49</t>
+  </si>
+  <si>
+    <t>586A6A</t>
+  </si>
+  <si>
+    <t>8B414E</t>
+  </si>
+  <si>
+    <t>453B3A</t>
+  </si>
+  <si>
+    <t>FAF9FF</t>
+  </si>
+  <si>
+    <t>BFB087</t>
+  </si>
+  <si>
+    <t>E2D8CF</t>
+  </si>
+  <si>
+    <t>ECEDF2</t>
+  </si>
+  <si>
+    <t>37232F</t>
+  </si>
+  <si>
+    <t>E3E4E9</t>
+  </si>
+  <si>
+    <t>41363C</t>
+  </si>
+  <si>
+    <t>FBEFF1</t>
+  </si>
+  <si>
+    <t>3D2831</t>
+  </si>
+  <si>
+    <t>4E5D58</t>
+  </si>
+  <si>
+    <t>B0B2AD</t>
+  </si>
+  <si>
+    <t>D8DCDD</t>
+  </si>
+  <si>
+    <t>3B444D</t>
+  </si>
+  <si>
+    <t>coat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F9F9F7</t>
+  </si>
+  <si>
+    <t>AEAEAE</t>
+  </si>
+  <si>
+    <t>39393B</t>
+  </si>
+  <si>
+    <t>0E1414</t>
+  </si>
+  <si>
+    <t>ECDBEE</t>
+  </si>
+  <si>
+    <t>32324E</t>
+  </si>
+  <si>
+    <t>382F4C</t>
+  </si>
+  <si>
+    <t>B6968B</t>
+  </si>
+  <si>
+    <t>B49992</t>
+  </si>
+  <si>
+    <t>47232F</t>
+  </si>
+  <si>
+    <t>B79A94</t>
+  </si>
+  <si>
+    <t>3C394A</t>
+  </si>
+  <si>
+    <t>621C38</t>
+  </si>
+  <si>
+    <t>3C2D40</t>
+  </si>
+  <si>
+    <t>84899D</t>
+  </si>
+  <si>
+    <t>A3A6B5</t>
+  </si>
+  <si>
+    <t>BAB3BA</t>
+  </si>
+  <si>
+    <t>473B49</t>
+  </si>
+  <si>
+    <t>EFEFF7</t>
+  </si>
+  <si>
+    <t>311C2F</t>
+  </si>
+  <si>
+    <t>62373E</t>
+  </si>
+  <si>
+    <t>F5DBE4</t>
+  </si>
+  <si>
+    <t>E0B7A5</t>
+  </si>
+  <si>
+    <t>42353F</t>
+  </si>
+  <si>
+    <t>2E1A26</t>
+  </si>
+  <si>
+    <t>jeans jacket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2B3982</t>
+  </si>
+  <si>
+    <t>EAECF9</t>
+  </si>
+  <si>
+    <t>C3C2C8</t>
+  </si>
+  <si>
+    <t>040203</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FCFDFF</t>
+  </si>
+  <si>
+    <t>AF8B69</t>
+  </si>
+  <si>
+    <t>F2E6EA</t>
+  </si>
+  <si>
+    <t>33212F</t>
+  </si>
+  <si>
+    <t>F9FDFF</t>
+  </si>
+  <si>
+    <t>3665B5</t>
+  </si>
+  <si>
+    <t>EAEBFD</t>
+  </si>
+  <si>
+    <t>E7CEAF</t>
+  </si>
+  <si>
+    <t>020106</t>
+  </si>
+  <si>
+    <t>E5E4E9</t>
+  </si>
+  <si>
+    <t>BC6172</t>
+  </si>
+  <si>
+    <t>EAD3E3</t>
+  </si>
+  <si>
+    <t>415D8C</t>
+  </si>
+  <si>
+    <t>B9B1AF</t>
+  </si>
+  <si>
+    <t>8A5551</t>
+  </si>
+  <si>
+    <t>F2F4FF</t>
+  </si>
+  <si>
+    <t>158DB0</t>
+  </si>
+  <si>
+    <t>F9EFE5</t>
+  </si>
+  <si>
+    <t>2E222C</t>
+  </si>
+  <si>
+    <t>CDD0D7</t>
+  </si>
+  <si>
+    <t>302430</t>
+  </si>
+  <si>
+    <t>F8D4BA</t>
+  </si>
+  <si>
+    <t>4C4B47</t>
+  </si>
+  <si>
+    <t>758BA2</t>
+  </si>
+  <si>
+    <t>484943</t>
+  </si>
+  <si>
+    <t>C5AA95</t>
+  </si>
+  <si>
+    <t>BD7E55</t>
+  </si>
+  <si>
+    <t>3C222B</t>
+  </si>
+  <si>
+    <t>beanie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9777A8</t>
+  </si>
+  <si>
+    <t>7D89AF</t>
+  </si>
+  <si>
+    <t>4F4850</t>
+  </si>
+  <si>
+    <t>211B1B</t>
+  </si>
+  <si>
+    <t>EBDED8</t>
+  </si>
+  <si>
+    <t>241E20</t>
+  </si>
+  <si>
+    <t>F3E4DD</t>
+  </si>
+  <si>
+    <t>252233</t>
+  </si>
+  <si>
+    <t>E1DDEE</t>
+  </si>
+  <si>
+    <t>D2AAB2</t>
+  </si>
+  <si>
+    <t>5E4451</t>
+  </si>
+  <si>
+    <t>FBCC86</t>
+  </si>
+  <si>
+    <t>433C4E</t>
+  </si>
+  <si>
+    <t>19161D</t>
+  </si>
+  <si>
+    <t>EDEBF6</t>
+  </si>
+  <si>
+    <t>171C20</t>
+  </si>
+  <si>
+    <t>1F2831</t>
+  </si>
+  <si>
+    <t>CACEDA</t>
+  </si>
+  <si>
+    <t>2B2831</t>
+  </si>
+  <si>
+    <t>E24755</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95385DD4-707C-4295-8563-FA72B3165BDE}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2887,122 +3464,2644 @@
       </c>
     </row>
     <row r="42" spans="1:14">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="10:14">
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="10:14">
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="10:14">
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="10:14">
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="10:14">
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="10:14">
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="10:14">
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="10:14">
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="10:14">
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L60" s="3">
+        <v>666563</v>
+      </c>
+      <c r="M60" s="3">
+        <v>555354</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="N63" s="3">
+        <v>30305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="N64" s="3">
+        <v>171813</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" t="s">
+        <v>207</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" t="s">
+        <v>131</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="3">
+        <v>272526</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="L69" s="3">
+        <v>283734</v>
+      </c>
+      <c r="M69" s="3">
+        <v>212123</v>
+      </c>
+      <c r="N69" s="3">
+        <v>212123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="N72" s="3">
+        <v>333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="N73" s="3">
+        <v>341928</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" s="3">
+        <v>161920</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="L79" s="3">
+        <v>274989</v>
+      </c>
+      <c r="M79" s="3">
+        <v>274989</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="N81" s="3">
+        <v>392433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="L82" s="3">
+        <v>222129</v>
+      </c>
+      <c r="M82" s="3">
+        <v>222129</v>
+      </c>
+      <c r="N82" s="3">
+        <v>222129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="N84" s="3">
+        <v>342834</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" t="s">
+        <v>131</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L100" s="3">
+        <v>293241</v>
+      </c>
+      <c r="M100" s="3">
+        <v>293241</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>392</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3015,7 +6114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408EFA92-CB93-4C76-B6EF-50034251D4E9}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
